--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="A4:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B37" sqref="B37:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
